--- a/penjualan_kerudung/static/excel/penjualan_kerudung.xlsx
+++ b/penjualan_kerudung/static/excel/penjualan_kerudung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4. DONE\penjualan-kerudung-django\penjualan_kerudung\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D25EEF4-D006-4556-A9FF-B2E907174600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B470DDE-0ECF-47A9-8860-79835EF66AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{94AC337A-01F0-4DDD-AF6B-B2EAABC73D2E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{94AC337A-01F0-4DDD-AF6B-B2EAABC73D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Ukuran Kain</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Terjual</t>
   </si>
@@ -584,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEB2E36-339A-4DE8-AC81-B18701D0C71B}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,256 +594,230 @@
     <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1084,50 +1055,50 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
